--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t xml:space="preserve">caro ferraris y sr </t>
+  </si>
+  <si>
+    <t>Vivi Rodriguez</t>
   </si>
 </sst>
 </file>
@@ -695,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +865,7 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D8">
@@ -878,14 +881,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10">
         <v>2</v>
       </c>
       <c r="F9" t="s">
@@ -1095,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1108,14 +1111,14 @@
       <c r="F20" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="H20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1129,10 +1132,10 @@
       <c r="F21" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="H21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1230,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1243,10 +1246,10 @@
       <c r="F27" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="H27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1332,6 +1335,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+    </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
@@ -1387,14 +1401,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="10">
         <v>2</v>
       </c>
     </row>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -699,7 +699,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1172,11 +1172,11 @@
       <c r="F23" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="1">
-        <v>4</v>
+      <c r="H23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Vivi Rodriguez</t>
+  </si>
+  <si>
+    <t>Andres Ventura y novia</t>
+  </si>
+  <si>
+    <t>Guillermo Garnero y Sra</t>
   </si>
 </sst>
 </file>
@@ -699,7 +705,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +713,7 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
     <col min="7" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -847,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -860,8 +866,17 @@
       <c r="E7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -872,13 +887,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="9">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.35">
@@ -892,16 +907,16 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -912,12 +927,12 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="9">
         <v>2</v>
       </c>
     </row>
@@ -932,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>79</v>
@@ -952,24 +967,24 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
@@ -983,13 +998,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
@@ -1003,13 +1018,13 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I15" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
@@ -1023,13 +1038,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
@@ -1046,16 +1064,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
@@ -1069,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>79</v>
@@ -1089,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>79</v>
@@ -1109,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>79</v>
@@ -1118,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1130,16 +1145,16 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1150,13 +1165,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
@@ -1170,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>79</v>
@@ -1178,8 +1193,11 @@
       <c r="I23" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="J23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1190,19 +1208,16 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="9">
-        <v>2</v>
-      </c>
-      <c r="J24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1213,18 +1228,18 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="8">
+        <v>77</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="F26" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>79</v>
@@ -1244,18 +1259,18 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="F28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>79</v>
@@ -1266,13 +1281,13 @@
     </row>
     <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="F29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I29" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
@@ -1286,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>79</v>
@@ -1306,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>79</v>
@@ -1315,7 +1330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1326,16 +1341,16 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -1345,8 +1360,17 @@
       <c r="D33" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1357,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -1368,7 +1392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1379,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1390,7 +1414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -1401,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1412,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1423,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -1434,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1445,7 +1469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1456,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -1467,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -1478,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -1489,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>63</v>
       </c>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Lucresia</t>
-  </si>
-  <si>
-    <t>Tia Graciela</t>
   </si>
   <si>
     <t>Tia Marta</t>
@@ -704,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
@@ -821,7 +818,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
@@ -844,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -870,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -930,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
@@ -950,7 +947,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" s="9">
         <v>2</v>
@@ -970,7 +967,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" s="9">
         <v>1</v>
@@ -978,10 +975,10 @@
     </row>
     <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13" s="9">
         <v>2</v>
@@ -1001,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" s="9">
         <v>1</v>
@@ -1021,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="9">
         <v>2</v>
@@ -1041,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
@@ -1067,7 +1064,7 @@
         <v>22</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
@@ -1084,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="9">
         <v>2</v>
@@ -1104,10 +1101,10 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="9">
         <v>2</v>
@@ -1124,10 +1121,10 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" s="9">
         <v>2</v>
@@ -1145,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>7</v>
@@ -1156,7 +1153,7 @@
     </row>
     <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>7</v>
@@ -1165,13 +1162,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
@@ -1185,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" s="9">
         <v>2</v>
@@ -1208,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>7</v>
@@ -1228,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9">
         <v>2</v>
@@ -1239,10 +1236,10 @@
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="F26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9">
         <v>2</v>
@@ -1259,10 +1256,10 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9">
         <v>1</v>
@@ -1270,10 +1267,10 @@
     </row>
     <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="F28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9">
         <v>1</v>
@@ -1281,10 +1278,10 @@
     </row>
     <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="F29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" s="9">
         <v>2</v>
@@ -1301,10 +1298,10 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I30" s="9">
         <v>2</v>
@@ -1321,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I31" s="9">
         <v>2</v>
@@ -1332,7 +1329,7 @@
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>7</v>
@@ -1341,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>7</v>
@@ -1352,7 +1349,7 @@
     </row>
     <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>7</v>
@@ -1361,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>7</v>
@@ -1383,29 +1380,18 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1416,7 +1402,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1427,7 +1413,7 @@
     </row>
     <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>7</v>
@@ -1438,7 +1424,7 @@
     </row>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>7</v>
@@ -1449,7 +1435,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1460,7 +1446,7 @@
     </row>
     <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>7</v>
@@ -1471,7 +1457,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1482,7 +1468,7 @@
     </row>
     <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>7</v>
@@ -1493,7 +1479,7 @@
     </row>
     <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>7</v>
@@ -1504,7 +1490,7 @@
     </row>
     <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>7</v>
@@ -1515,7 +1501,7 @@
     </row>
     <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>7</v>
@@ -1526,7 +1512,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1537,7 +1523,7 @@
     </row>
     <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>7</v>
@@ -1548,7 +1534,7 @@
     </row>
     <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>7</v>
@@ -1559,7 +1545,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1570,7 +1556,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1581,7 +1567,7 @@
     </row>
     <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>7</v>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -105,9 +105,6 @@
     <t>vale y david</t>
   </si>
   <si>
-    <t>norma y osbaldo</t>
-  </si>
-  <si>
     <t>chaca y sol</t>
   </si>
   <si>
@@ -270,17 +267,17 @@
     <t>Vivi Rodriguez</t>
   </si>
   <si>
-    <t>Andres Ventura y novia</t>
-  </si>
-  <si>
     <t>Guillermo Garnero y Sra</t>
+  </si>
+  <si>
+    <t>norma y gonzalo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +294,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -359,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,6 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" activeCellId="59" sqref="D4 D5 D6 D7 E6 E7 D9 D10 D11 D12 D14 D15 D16 D19 D20 D21 D22 D23 D24 D25 D30 D31 D32 D33 D40 D41 D43 D45 D46 D47 D48 D50 D51 D54 I4 I5 I6 I7 J6 I10 I11 I12 I13 I14 I15:I16 I17 I18 I19 I20 J16 I22 I23 J23 I25 I26 I28 I27 I29 I30 I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +789,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -793,18 +799,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -814,18 +820,18 @@
         <v>2</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" t="s">
+      <c r="F5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -837,11 +843,11 @@
       <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -851,7 +857,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -863,11 +869,11 @@
       <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -894,7 +900,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -914,131 +920,131 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="A10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="H13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
@@ -1049,7 +1055,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1060,11 +1066,11 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
@@ -1072,67 +1078,67 @@
     </row>
     <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="C19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="H20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1142,38 +1148,38 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="10">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
       <c r="H22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>40</v>
+      <c r="A23" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>7</v>
@@ -1181,65 +1187,65 @@
       <c r="D23" s="10">
         <v>3</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="9">
+        <v>2</v>
+      </c>
+      <c r="J23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="9">
-        <v>2</v>
-      </c>
-      <c r="J23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
       <c r="C25" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="10">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
-        <v>76</v>
+      <c r="F25" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F26" t="s">
-        <v>66</v>
+      <c r="F26" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9">
         <v>2</v>
@@ -1247,49 +1253,49 @@
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>44</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>7</v>
@@ -1297,79 +1303,70 @@
       <c r="D30" s="10">
         <v>5</v>
       </c>
-      <c r="F30" t="s">
-        <v>71</v>
+      <c r="F30" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="A31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>45</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1378,9 +1375,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1389,9 +1386,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1400,9 +1397,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1411,97 +1408,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="C41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="C43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="C45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="C46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>62</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>7</v>
@@ -1512,29 +1509,29 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="C50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>65</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>7</v>
@@ -1545,7 +1542,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1556,7 +1553,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1566,8 +1563,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>77</v>
+      <c r="A54" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>7</v>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -120,9 +120,6 @@
     <t>vir picato</t>
   </si>
   <si>
-    <t>fabi y ariel</t>
-  </si>
-  <si>
     <t>tincho y xx</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Familia Hernaez</t>
   </si>
   <si>
-    <t>Familia Jabob</t>
-  </si>
-  <si>
     <t>Tia Nilda</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
   </si>
   <si>
     <t>Mauricio Ferreyra y Sra</t>
-  </si>
-  <si>
-    <t>juan y ana</t>
   </si>
   <si>
     <t>lili y edu</t>
@@ -394,6 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,7 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" activeCellId="59" sqref="D4 D5 D6 D7 E6 E7 D9 D10 D11 D12 D14 D15 D16 D19 D20 D21 D22 D23 D24 D25 D30 D31 D32 D33 D40 D41 D43 D45 D46 D47 D48 D50 D51 D54 I4 I5 I6 I7 J6 I10 I11 I12 I13 I14 I15:I16 I17 I18 I19 I20 J16 I22 I23 J23 I25 I26 I28 I27 I29 I30 I31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,44 +712,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -789,7 +780,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -799,596 +790,651 @@
         <v>1</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="9">
-        <v>2</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10">
+        <v>3</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="9">
+        <v>2</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="10">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="9">
-        <v>2</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="10">
-        <v>2</v>
-      </c>
-      <c r="F22" s="16" t="s">
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="10">
-        <v>3</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="9">
-        <v>2</v>
-      </c>
-      <c r="J23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F26" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F28" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F29" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="10">
-        <v>5</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>83</v>
-      </c>
       <c r="G32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
-        <v>82</v>
+      <c r="A33" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="D36">
         <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1399,7 +1445,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1408,31 +1454,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="10">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1441,135 +1487,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="10">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
         <v>2</v>
       </c>
     </row>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -268,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +293,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -355,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,6 +402,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,7 +708,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +881,7 @@
     </row>
     <row r="8" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>7</v>
@@ -892,7 +901,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -912,7 +921,7 @@
     </row>
     <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A10" s="13" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>7</v>
@@ -932,7 +941,7 @@
     </row>
     <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A11" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>7</v>
@@ -952,13 +961,13 @@
     </row>
     <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A12" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>14</v>
@@ -972,13 +981,13 @@
     </row>
     <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>15</v>
@@ -992,13 +1001,13 @@
     </row>
     <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>21</v>
@@ -1015,13 +1024,13 @@
     </row>
     <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>22</v>
@@ -1035,7 +1044,7 @@
     </row>
     <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>7</v>
@@ -1055,7 +1064,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>7</v>
@@ -1075,12 +1084,11 @@
     </row>
     <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D18" s="10">
         <v>3</v>
       </c>
@@ -1096,7 +1104,7 @@
     </row>
     <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A19" s="13" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>7</v>
@@ -1116,13 +1124,13 @@
     </row>
     <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>49</v>
@@ -1139,13 +1147,13 @@
     </row>
     <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A21" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>72</v>
@@ -1159,7 +1167,7 @@
     </row>
     <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A22" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>7</v>
@@ -1179,13 +1187,13 @@
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>64</v>
@@ -1199,7 +1207,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="13" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>7</v>
@@ -1219,13 +1227,13 @@
     </row>
     <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A25" s="13" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>66</v>
@@ -1239,13 +1247,13 @@
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A26" s="13" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>67</v>
@@ -1259,7 +1267,7 @@
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>7</v>
@@ -1279,7 +1287,7 @@
     </row>
     <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>7</v>
@@ -1299,13 +1307,13 @@
     </row>
     <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1319,13 +1327,13 @@
     </row>
     <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1339,13 +1347,13 @@
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
@@ -1359,13 +1367,13 @@
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>50</v>
@@ -1379,7 +1387,7 @@
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>7</v>
@@ -1388,31 +1396,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="10">
-        <v>2</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1423,18 +1431,18 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1445,7 +1453,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1456,7 +1464,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1467,7 +1475,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1478,18 +1486,18 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1499,25 +1507,27 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
+      <c r="A44" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -393,6 +393,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,8 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +708,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,44 +721,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -1333,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1396,42 +1396,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1486,47 +1486,47 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17">
+      <c r="B44" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="17">
+      <c r="B45" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="14">
         <v>3</v>
       </c>
     </row>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Nico y Laura</t>
   </si>
   <si>
-    <t>Mauricio Ferreyra y Sra</t>
-  </si>
-  <si>
     <t>lili y edu</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
   </si>
   <si>
     <t>Vivi Rodriguez</t>
-  </si>
-  <si>
-    <t>Guillermo Garnero y Sra</t>
   </si>
   <si>
     <t>norma y gonzalo</t>
@@ -708,7 +702,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
@@ -824,7 +818,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
@@ -847,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -873,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -893,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -901,7 +895,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -913,7 +907,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="9">
         <v>2</v>
@@ -933,7 +927,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="9">
         <v>1</v>
@@ -950,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="9">
         <v>2</v>
@@ -973,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="9">
         <v>1</v>
@@ -993,7 +987,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="9">
         <v>2</v>
@@ -1013,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="9">
         <v>2</v>
@@ -1036,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="9">
         <v>2</v>
@@ -1053,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
@@ -1064,7 +1058,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>7</v>
@@ -1076,7 +1070,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
@@ -1096,7 +1090,7 @@
         <v>46</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="9">
         <v>2</v>
@@ -1116,7 +1110,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" s="9">
         <v>4</v>
@@ -1136,7 +1130,7 @@
         <v>49</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="9">
         <v>2</v>
@@ -1156,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="9">
         <v>2</v>
@@ -1176,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9">
         <v>2</v>
@@ -1187,19 +1181,19 @@
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9">
         <v>1</v>
@@ -1207,7 +1201,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>7</v>
@@ -1216,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9">
         <v>1</v>
@@ -1227,7 +1221,7 @@
     </row>
     <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A25" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>7</v>
@@ -1236,10 +1230,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9">
         <v>2</v>
@@ -1247,7 +1241,7 @@
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A26" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>7</v>
@@ -1256,10 +1250,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9">
         <v>2</v>
@@ -1267,7 +1261,7 @@
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>7</v>
@@ -1276,10 +1270,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" s="9">
         <v>2</v>
@@ -1287,7 +1281,7 @@
     </row>
     <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>7</v>
@@ -1296,18 +1290,18 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>7</v>
@@ -1316,18 +1310,18 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>7</v>
@@ -1336,18 +1330,18 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>7</v>
@@ -1355,19 +1349,11 @@
       <c r="D31" s="10">
         <v>2</v>
       </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>7</v>
@@ -1375,19 +1361,11 @@
       <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="8">
-        <v>2</v>
-      </c>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>7</v>
@@ -1398,7 +1376,7 @@
     </row>
     <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>7</v>
@@ -1431,7 +1409,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1453,7 +1431,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1464,7 +1442,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1475,7 +1453,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1486,7 +1464,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1497,7 +1475,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>norma y gonzalo</t>
+  </si>
+  <si>
+    <t>Guillermo Garnero y Sra e hija</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,9 +376,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,57 +715,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="3"/>
@@ -783,605 +783,615 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="9">
-        <v>2</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="8">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="C14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="9">
-        <v>2</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="8">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="C16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="C17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9">
         <v>3</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>46</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="9">
-        <v>2</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="I20" s="8">
+        <v>2</v>
+      </c>
+      <c r="J20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9">
         <v>5</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="C24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>64</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="C25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="10">
-        <v>2</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="C26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="10">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+      <c r="I27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="8">
+        <v>2</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="10">
-        <v>2</v>
-      </c>
-      <c r="H31" s="8"/>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="10">
-        <v>2</v>
-      </c>
-      <c r="I32" s="8"/>
+      <c r="C32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="C33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="10">
+      <c r="C34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1485,26 +1495,26 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14">
+      <c r="B44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="14">
+      <c r="B45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="13">
         <v>3</v>
       </c>
     </row>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>nati puleo</t>
-  </si>
-  <si>
-    <t>vale y ale</t>
   </si>
   <si>
     <t>vale y david</t>
@@ -699,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
@@ -818,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -841,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="8">
         <v>2</v>
@@ -867,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="8">
         <v>2</v>
@@ -875,7 +872,7 @@
     </row>
     <row r="8" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>7</v>
@@ -887,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
@@ -895,7 +892,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
@@ -907,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
@@ -915,7 +912,7 @@
     </row>
     <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>7</v>
@@ -927,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -935,7 +932,7 @@
     </row>
     <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>7</v>
@@ -944,10 +941,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="8">
         <v>2</v>
@@ -955,7 +952,7 @@
     </row>
     <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>7</v>
@@ -967,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -975,7 +972,7 @@
     </row>
     <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>7</v>
@@ -987,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
@@ -995,7 +992,7 @@
     </row>
     <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>7</v>
@@ -1007,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" s="8">
         <v>2</v>
@@ -1018,7 +1015,7 @@
     </row>
     <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>7</v>
@@ -1030,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>7</v>
@@ -1047,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
@@ -1058,7 +1055,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1067,10 +1064,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
@@ -1078,7 +1075,7 @@
     </row>
     <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>7</v>
@@ -1087,10 +1084,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I18" s="8">
         <v>2</v>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>7</v>
@@ -1107,10 +1104,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -1118,7 +1115,7 @@
     </row>
     <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>7</v>
@@ -1127,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -1141,7 +1138,7 @@
     </row>
     <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>7</v>
@@ -1150,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>7</v>
@@ -1170,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="8">
         <v>2</v>
@@ -1181,19 +1178,19 @@
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1201,7 +1198,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>7</v>
@@ -1210,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -1221,7 +1218,7 @@
     </row>
     <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>7</v>
@@ -1230,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" s="8">
         <v>2</v>
@@ -1241,7 +1238,7 @@
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>7</v>
@@ -1250,10 +1247,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I26" s="8">
         <v>2</v>
@@ -1261,7 +1258,7 @@
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>7</v>
@@ -1270,10 +1267,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I27" s="8">
         <v>2</v>
@@ -1281,7 +1278,7 @@
     </row>
     <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>7</v>
@@ -1290,10 +1287,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I28" s="8">
         <v>2</v>
@@ -1304,7 +1301,7 @@
     </row>
     <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>7</v>
@@ -1324,7 +1321,7 @@
     </row>
     <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>7</v>
@@ -1344,7 +1341,7 @@
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>7</v>
@@ -1353,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>7</v>
@@ -1364,7 +1361,7 @@
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>7</v>
@@ -1375,7 +1372,7 @@
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>7</v>
@@ -1386,7 +1383,7 @@
     </row>
     <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>7</v>
@@ -1397,7 +1394,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1408,7 +1405,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1419,7 +1416,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1441,7 +1438,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1452,7 +1449,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1463,7 +1460,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1474,7 +1471,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1485,7 +1482,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1494,27 +1491,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="13">
         <v>3</v>
       </c>
     </row>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>dani y señora</t>
-  </si>
-  <si>
-    <t>vivi y macelo</t>
   </si>
   <si>
     <t>coty y dario</t>
@@ -696,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +791,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
@@ -815,7 +812,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="8">
         <v>2</v>
@@ -864,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="8">
         <v>2</v>
@@ -884,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
@@ -892,7 +889,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
@@ -904,7 +901,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
@@ -924,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -941,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="8">
         <v>2</v>
@@ -964,7 +961,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -984,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
@@ -1004,7 +1001,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="8">
         <v>2</v>
@@ -1027,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
@@ -1044,10 +1041,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
@@ -1055,7 +1052,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1067,7 +1064,7 @@
         <v>44</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
@@ -1087,7 +1084,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="8">
         <v>2</v>
@@ -1107,7 +1104,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -1127,7 +1124,7 @@
         <v>48</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -1147,10 +1144,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
@@ -1167,10 +1164,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="8">
         <v>2</v>
@@ -1178,19 +1175,19 @@
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1198,7 +1195,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>7</v>
@@ -1207,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -1227,10 +1224,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="8">
         <v>2</v>
@@ -1247,10 +1244,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="8">
         <v>2</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>7</v>
@@ -1267,10 +1264,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I27" s="8">
         <v>2</v>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>7</v>
@@ -1287,10 +1284,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I28" s="8">
         <v>2</v>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>7</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>7</v>
@@ -1341,7 +1338,7 @@
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>7</v>
@@ -1361,7 +1358,7 @@
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>7</v>
@@ -1370,9 +1367,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>7</v>
@@ -1381,9 +1378,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>7</v>
@@ -1392,115 +1389,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -126,9 +126,6 @@
     <t>mama y papaa</t>
   </si>
   <si>
-    <t>jose luis, marcela, tia</t>
-  </si>
-  <si>
     <t>Flia Prelatto</t>
   </si>
   <si>
@@ -253,13 +250,16 @@
   </si>
   <si>
     <t>Guillermo Garnero y Sra e hija</t>
+  </si>
+  <si>
+    <t>jose luis, marcela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,13 +284,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -353,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,7 +375,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" activeCellId="1" sqref="D4:E37 I4:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,44 +701,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -791,7 +783,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
@@ -812,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -835,7 +827,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="8">
         <v>2</v>
@@ -861,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="8">
         <v>2</v>
@@ -881,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
@@ -889,7 +881,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
@@ -901,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
@@ -921,7 +913,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -938,10 +930,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="8">
         <v>2</v>
@@ -961,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -981,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
@@ -1001,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" s="8">
         <v>2</v>
@@ -1024,7 +1016,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
@@ -1041,10 +1033,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
@@ -1052,7 +1044,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1061,10 +1053,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
@@ -1072,7 +1064,7 @@
     </row>
     <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>7</v>
@@ -1081,10 +1073,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" s="8">
         <v>2</v>
@@ -1092,7 +1084,7 @@
     </row>
     <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>7</v>
@@ -1101,10 +1093,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -1112,7 +1104,7 @@
     </row>
     <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>7</v>
@@ -1121,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -1135,7 +1127,7 @@
     </row>
     <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>7</v>
@@ -1144,10 +1136,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
@@ -1155,7 +1147,7 @@
     </row>
     <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>7</v>
@@ -1164,10 +1156,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="8">
         <v>2</v>
@@ -1175,19 +1167,19 @@
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1195,7 +1187,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>7</v>
@@ -1204,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -1215,7 +1207,7 @@
     </row>
     <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>7</v>
@@ -1224,10 +1216,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" s="8">
         <v>2</v>
@@ -1235,7 +1227,7 @@
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>7</v>
@@ -1244,10 +1236,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I26" s="8">
         <v>2</v>
@@ -1255,7 +1247,7 @@
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>7</v>
@@ -1264,10 +1256,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I27" s="8">
         <v>2</v>
@@ -1275,7 +1267,7 @@
     </row>
     <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>7</v>
@@ -1284,10 +1276,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" s="8">
         <v>2</v>
@@ -1298,7 +1290,7 @@
     </row>
     <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>7</v>
@@ -1318,7 +1310,7 @@
     </row>
     <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>7</v>
@@ -1338,7 +1330,7 @@
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>7</v>
@@ -1347,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>7</v>
@@ -1358,7 +1350,7 @@
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>7</v>
@@ -1369,7 +1361,7 @@
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>7</v>
@@ -1380,7 +1372,7 @@
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>7</v>
@@ -1391,7 +1383,7 @@
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
@@ -1404,7 +1396,7 @@
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
@@ -1414,20 +1406,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37">
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1438,25 +1431,24 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1472,7 +1464,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1483,7 +1475,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Tia Teresa</t>
-  </si>
-  <si>
-    <t>Lucresia</t>
   </si>
   <si>
     <t>Tia Marta</t>
@@ -346,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,6 +379,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" activeCellId="1" sqref="D4:E37 I4:J28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="8">
         <v>2</v>
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="8">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
@@ -893,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
@@ -913,7 +913,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -930,10 +930,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="8">
         <v>2</v>
@@ -953,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -973,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="8">
         <v>2</v>
@@ -1016,7 +1016,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
@@ -1033,10 +1033,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1053,10 +1053,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
@@ -1073,10 +1073,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="8">
         <v>2</v>
@@ -1093,10 +1093,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -1136,10 +1136,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
@@ -1156,10 +1156,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="8">
         <v>2</v>
@@ -1167,19 +1167,19 @@
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>7</v>
@@ -1196,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>7</v>
@@ -1216,10 +1216,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="8">
         <v>2</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>7</v>
@@ -1236,10 +1236,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="8">
         <v>2</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>7</v>
@@ -1256,10 +1256,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="8">
         <v>2</v>
@@ -1267,50 +1267,51 @@
     </row>
     <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="8">
+        <v>2</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="9">
-        <v>2</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="8">
-        <v>2</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="9">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
+      <c r="H29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>7</v>
@@ -1330,7 +1331,7 @@
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>7</v>
@@ -1339,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>7</v>
@@ -1350,7 +1351,7 @@
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>7</v>
@@ -1361,7 +1362,7 @@
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>7</v>
@@ -1372,7 +1373,7 @@
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>7</v>
@@ -1383,7 +1384,7 @@
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
@@ -1396,7 +1397,7 @@
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
@@ -1408,7 +1409,7 @@
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="9" t="s">
@@ -1420,7 +1421,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1431,7 +1432,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1442,7 +1443,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1464,23 +1465,12 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43">
         <v>2</v>
       </c>
     </row>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>Carlos Quiroz y Sra</t>
-  </si>
-  <si>
-    <t>maxi y novia</t>
   </si>
   <si>
     <t>Luciano Sat y Sra</t>
@@ -372,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,9 +379,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,44 +698,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -881,7 +878,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
@@ -1033,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>69</v>
@@ -1187,7 +1184,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>7</v>
@@ -1276,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>69</v>
@@ -1307,7 +1304,7 @@
       <c r="I29" s="8">
         <v>1</v>
       </c>
-      <c r="J29" s="17"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
@@ -1360,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>68</v>
       </c>
@@ -1371,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>66</v>
       </c>
@@ -1382,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>41</v>
       </c>
@@ -1395,7 +1392,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
@@ -1407,9 +1404,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="9" t="s">
@@ -1419,9 +1416,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1430,47 +1427,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42">
         <v>2</v>
       </c>
     </row>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Javier Arcas</t>
-  </si>
-  <si>
-    <t>Charly y Sra</t>
   </si>
   <si>
     <t>Guille Ferruchi y Novia</t>
@@ -684,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
@@ -759,15 +756,15 @@
         <v>2</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -777,10 +774,10 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
@@ -788,7 +785,7 @@
     </row>
     <row r="5" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
@@ -798,10 +795,10 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -809,7 +806,7 @@
     </row>
     <row r="6" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>
@@ -821,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="8">
         <v>2</v>
@@ -835,7 +832,7 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>7</v>
@@ -850,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="8">
         <v>2</v>
@@ -858,7 +855,7 @@
     </row>
     <row r="8" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>7</v>
@@ -867,10 +864,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
@@ -878,7 +875,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
@@ -887,10 +884,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
@@ -898,7 +895,7 @@
     </row>
     <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>7</v>
@@ -907,10 +904,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -918,7 +915,7 @@
     </row>
     <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>7</v>
@@ -927,10 +924,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="8">
         <v>2</v>
@@ -938,7 +935,7 @@
     </row>
     <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>7</v>
@@ -947,10 +944,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -958,7 +955,7 @@
     </row>
     <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>7</v>
@@ -967,10 +964,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
@@ -978,7 +975,7 @@
     </row>
     <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>7</v>
@@ -987,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="8">
         <v>2</v>
@@ -1001,7 +998,7 @@
     </row>
     <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>7</v>
@@ -1010,10 +1007,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
@@ -1021,7 +1018,7 @@
     </row>
     <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>7</v>
@@ -1030,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
@@ -1041,7 +1038,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1050,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
@@ -1061,7 +1058,7 @@
     </row>
     <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>7</v>
@@ -1070,10 +1067,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="8">
         <v>2</v>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>7</v>
@@ -1090,10 +1087,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -1101,7 +1098,7 @@
     </row>
     <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>7</v>
@@ -1110,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -1124,7 +1121,7 @@
     </row>
     <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>7</v>
@@ -1133,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
@@ -1144,7 +1141,7 @@
     </row>
     <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>7</v>
@@ -1153,10 +1150,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="8">
         <v>2</v>
@@ -1164,19 +1161,19 @@
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1184,7 +1181,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>7</v>
@@ -1193,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -1204,7 +1201,7 @@
     </row>
     <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>7</v>
@@ -1213,10 +1210,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I25" s="8">
         <v>2</v>
@@ -1224,7 +1221,7 @@
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>7</v>
@@ -1233,10 +1230,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="8">
         <v>2</v>
@@ -1244,7 +1241,7 @@
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>7</v>
@@ -1253,10 +1250,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I27" s="8">
         <v>2</v>
@@ -1264,7 +1261,7 @@
     </row>
     <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>7</v>
@@ -1273,10 +1270,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I28" s="8">
         <v>2</v>
@@ -1287,7 +1284,7 @@
     </row>
     <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>7</v>
@@ -1299,16 +1296,16 @@
         <v>9</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I29" s="8">
         <v>1</v>
       </c>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>7</v>
@@ -1316,19 +1313,19 @@
       <c r="D30" s="9">
         <v>2</v>
       </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2</v>
+      <c r="F30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>7</v>
@@ -1336,19 +1333,11 @@
       <c r="D31" s="9">
         <v>2</v>
       </c>
-      <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>7</v>
@@ -1359,7 +1348,7 @@
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>7</v>
@@ -1370,7 +1359,7 @@
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>7</v>
@@ -1381,7 +1370,7 @@
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
@@ -1394,7 +1383,7 @@
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
@@ -1406,7 +1395,7 @@
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="9" t="s">
@@ -1418,7 +1407,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1429,7 +1418,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1441,7 +1430,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1452,7 +1441,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -159,9 +159,6 @@
     <t>lili y edu</t>
   </si>
   <si>
-    <t>raul y cinthia</t>
-  </si>
-  <si>
     <t>dani y señora</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Luciano Sat y Sra</t>
   </si>
   <si>
-    <t xml:space="preserve">caro ferraris y sr </t>
-  </si>
-  <si>
     <t>Vivi Rodriguez</t>
   </si>
   <si>
@@ -244,6 +238,12 @@
   </si>
   <si>
     <t>jose luis, marcela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raul </t>
+  </si>
+  <si>
+    <t>Tia Rosalia</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="8">
         <v>2</v>
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="8">
         <v>2</v>
@@ -867,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -924,10 +924,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="8">
         <v>2</v>
@@ -947,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="8">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
@@ -1027,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1050,7 +1050,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>42</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" s="8">
         <v>2</v>
@@ -1090,7 +1090,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -1110,7 +1110,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -1130,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
@@ -1150,10 +1150,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="8">
         <v>2</v>
@@ -1161,19 +1161,19 @@
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>7</v>
@@ -1190,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -1210,10 +1210,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I25" s="8">
         <v>2</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>7</v>
@@ -1230,10 +1230,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I26" s="8">
         <v>2</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>7</v>
@@ -1250,10 +1250,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" s="8">
         <v>2</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>7</v>
@@ -1270,10 +1270,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="8">
         <v>2</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>7</v>
@@ -1296,7 +1296,7 @@
         <v>9</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29" s="8">
         <v>1</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="30" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>7</v>
@@ -1317,7 +1317,7 @@
         <v>43</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I30" s="8">
         <v>1</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>7</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>7</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>7</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>7</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="9" t="s">
@@ -1405,20 +1405,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
+    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1430,18 +1430,18 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -114,9 +114,6 @@
     <t>vir picato</t>
   </si>
   <si>
-    <t>tincho y xx</t>
-  </si>
-  <si>
     <t>rodrigo y dani</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>diego y señora</t>
   </si>
   <si>
-    <t>luis martin</t>
-  </si>
-  <si>
     <t>naty fernandez</t>
   </si>
   <si>
@@ -240,10 +234,10 @@
     <t>jose luis, marcela</t>
   </si>
   <si>
-    <t xml:space="preserve">raul </t>
-  </si>
-  <si>
     <t>Tia Rosalia</t>
+  </si>
+  <si>
+    <t>Raul</t>
   </si>
 </sst>
 </file>
@@ -679,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +771,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
@@ -798,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -821,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" s="8">
         <v>2</v>
@@ -838,16 +832,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" s="8">
         <v>2</v>
@@ -867,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
@@ -875,7 +867,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
@@ -887,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
@@ -907,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -924,10 +916,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" s="8">
         <v>2</v>
@@ -947,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -967,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
@@ -987,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I14" s="8">
         <v>2</v>
@@ -998,7 +990,7 @@
     </row>
     <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>7</v>
@@ -1010,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
@@ -1018,7 +1010,7 @@
     </row>
     <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>7</v>
@@ -1027,10 +1019,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
@@ -1038,7 +1030,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1047,10 +1039,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
@@ -1058,7 +1050,7 @@
     </row>
     <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>7</v>
@@ -1067,10 +1059,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I18" s="8">
         <v>2</v>
@@ -1078,7 +1070,7 @@
     </row>
     <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>7</v>
@@ -1087,10 +1079,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -1098,7 +1090,7 @@
     </row>
     <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>7</v>
@@ -1107,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -1121,7 +1113,7 @@
     </row>
     <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>7</v>
@@ -1130,10 +1122,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
@@ -1141,7 +1133,7 @@
     </row>
     <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>7</v>
@@ -1150,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I22" s="8">
         <v>2</v>
@@ -1161,19 +1153,19 @@
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1181,7 +1173,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>7</v>
@@ -1190,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -1201,7 +1193,7 @@
     </row>
     <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>7</v>
@@ -1210,10 +1202,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I25" s="8">
         <v>2</v>
@@ -1221,7 +1213,7 @@
     </row>
     <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>7</v>
@@ -1230,10 +1222,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I26" s="8">
         <v>2</v>
@@ -1241,7 +1233,7 @@
     </row>
     <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>7</v>
@@ -1250,10 +1242,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I27" s="8">
         <v>2</v>
@@ -1261,7 +1253,7 @@
     </row>
     <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>7</v>
@@ -1270,10 +1262,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I28" s="8">
         <v>2</v>
@@ -1284,7 +1276,7 @@
     </row>
     <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>7</v>
@@ -1296,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I29" s="8">
         <v>1</v>
@@ -1305,7 +1297,7 @@
     </row>
     <row r="30" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>7</v>
@@ -1314,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I30" s="8">
         <v>1</v>
@@ -1325,7 +1317,7 @@
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>7</v>
@@ -1337,7 +1329,7 @@
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>7</v>
@@ -1348,7 +1340,7 @@
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>7</v>
@@ -1359,7 +1351,7 @@
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>7</v>
@@ -1370,7 +1362,7 @@
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
@@ -1383,7 +1375,7 @@
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
@@ -1395,7 +1387,7 @@
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="9" t="s">
@@ -1407,7 +1399,7 @@
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>7</v>
@@ -1416,39 +1408,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39">
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="9">
         <v>1</v>
       </c>
       <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" activeCellId="1" sqref="D4:E39 I4:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>63</v>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>mariela</t>
-  </si>
-  <si>
-    <t>patri y miguel</t>
   </si>
   <si>
     <t>sole y ale</t>
@@ -675,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" activeCellId="1" sqref="D4:E39 I4:J30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +768,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
@@ -792,7 +789,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -815,7 +812,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="8">
         <v>2</v>
@@ -839,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="8">
         <v>2</v>
@@ -859,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
@@ -867,7 +864,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
@@ -879,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
@@ -899,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -916,10 +913,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="8">
         <v>2</v>
@@ -939,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -959,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
@@ -979,7 +976,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="8">
         <v>2</v>
@@ -1002,7 +999,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
@@ -1019,10 +1016,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
@@ -1030,7 +1027,7 @@
     </row>
     <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1042,7 +1039,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
@@ -1062,7 +1059,7 @@
         <v>41</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" s="8">
         <v>2</v>
@@ -1082,7 +1079,7 @@
         <v>43</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -1102,7 +1099,7 @@
         <v>44</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -1122,10 +1119,10 @@
         <v>4</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
@@ -1142,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="8">
         <v>2</v>
@@ -1153,19 +1150,19 @@
     </row>
     <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1173,7 +1170,7 @@
     </row>
     <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>7</v>
@@ -1182,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -1202,10 +1199,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="8">
         <v>2</v>
@@ -1222,10 +1219,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="8">
         <v>2</v>
@@ -1242,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="8">
         <v>2</v>
@@ -1262,10 +1259,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I28" s="8">
         <v>2</v>
@@ -1288,7 +1285,7 @@
         <v>9</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="8">
         <v>1</v>
@@ -1309,7 +1306,7 @@
         <v>42</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I30" s="8">
         <v>1</v>
@@ -1317,7 +1314,7 @@
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>7</v>
@@ -1329,7 +1326,7 @@
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>7</v>
@@ -1340,7 +1337,7 @@
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>7</v>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>7</v>
@@ -1375,9 +1372,9 @@
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="B36" s="13"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -1389,12 +1386,11 @@
       <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="13"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -1408,16 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F39" s="13"/>
     </row>
   </sheetData>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Raul</t>
+  </si>
+  <si>
+    <t>Juan Perasi</t>
   </si>
 </sst>
 </file>
@@ -672,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" activeCellId="1" sqref="D4:E39 I4:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1407,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
       <c r="F39" s="13"/>
     </row>
   </sheetData>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -237,7 +237,7 @@
     <t>Raul</t>
   </si>
   <si>
-    <t>Juan Perasi</t>
+    <t>Juan Perazzi</t>
   </si>
 </sst>
 </file>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" activeCellId="1" sqref="D4:E39 I4:J30"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="8115"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -243,8 +243,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -331,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,9 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,6 +373,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +477,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -496,7 +511,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,14 +686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -688,47 +702,47 @@
     <col min="7" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -756,7 +770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.75">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -777,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.75">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -798,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21.75">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -824,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="21">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -835,17 +849,8 @@
         <v>2</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:10" ht="21.75">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
@@ -855,17 +860,19 @@
       <c r="D8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="20">
+        <v>4</v>
+      </c>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="21.75">
       <c r="A9" s="12" t="s">
         <v>68</v>
       </c>
@@ -875,17 +882,21 @@
       <c r="D9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="20">
+        <v>2</v>
+      </c>
+      <c r="J9" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21.75">
       <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
@@ -895,17 +906,19 @@
       <c r="D10" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="20">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="21">
       <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
@@ -915,17 +928,8 @@
       <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:10" ht="21.75">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -935,17 +939,18 @@
       <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.75">
       <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
@@ -955,17 +960,18 @@
       <c r="D13" s="9">
         <v>2</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21.75">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -975,20 +981,18 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="8">
-        <v>2</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21.75">
       <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
@@ -998,17 +1002,18 @@
       <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21.75">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -1018,17 +1023,18 @@
       <c r="D16" s="9">
         <v>2</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21">
       <c r="A17" s="12" t="s">
         <v>59</v>
       </c>
@@ -1038,17 +1044,8 @@
       <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:10" ht="21.75">
       <c r="A18" s="12" t="s">
         <v>34</v>
       </c>
@@ -1058,17 +1055,18 @@
       <c r="D18" s="9">
         <v>3</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21.75">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -1078,17 +1076,18 @@
       <c r="D19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21.75">
       <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
@@ -1098,20 +1097,18 @@
       <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="8">
-        <v>2</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21.75">
       <c r="A21" s="12" t="s">
         <v>37</v>
       </c>
@@ -1121,17 +1118,18 @@
       <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21.75">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
@@ -1141,17 +1139,18 @@
       <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21.75">
       <c r="A23" s="12" t="s">
         <v>54</v>
       </c>
@@ -1161,17 +1160,18 @@
       <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21">
       <c r="A24" s="12" t="s">
         <v>67</v>
       </c>
@@ -1181,17 +1181,8 @@
       <c r="D24" s="9">
         <v>1</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:10" ht="21.75">
       <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
@@ -1201,17 +1192,19 @@
       <c r="D25" s="9">
         <v>2</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="20">
+        <v>2</v>
+      </c>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="21.75">
       <c r="A26" s="12" t="s">
         <v>46</v>
       </c>
@@ -1221,17 +1214,19 @@
       <c r="D26" s="9">
         <v>2</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="F26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="20">
+        <v>2</v>
+      </c>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="21.75">
       <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
@@ -1241,17 +1236,19 @@
       <c r="D27" s="9">
         <v>2</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="G27" s="18"/>
+      <c r="H27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="20">
+        <v>2</v>
+      </c>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" ht="21.75">
       <c r="A28" s="12" t="s">
         <v>48</v>
       </c>
@@ -1261,20 +1258,21 @@
       <c r="D28" s="9">
         <v>2</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="8">
-        <v>2</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="G28" s="18"/>
+      <c r="H28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="20">
+        <v>2</v>
+      </c>
+      <c r="J28" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21.75">
       <c r="A29" s="12" t="s">
         <v>49</v>
       </c>
@@ -1284,18 +1282,19 @@
       <c r="D29" s="9">
         <v>1</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="8">
-        <v>1</v>
-      </c>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="G29" s="18"/>
+      <c r="H29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="20">
+        <v>1</v>
+      </c>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" ht="21">
       <c r="A30" s="12" t="s">
         <v>50</v>
       </c>
@@ -1305,17 +1304,8 @@
       <c r="D30" s="9">
         <v>2</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:10" ht="21.75">
       <c r="A31" s="12" t="s">
         <v>51</v>
       </c>
@@ -1325,9 +1315,19 @@
       <c r="D31" s="9">
         <v>2</v>
       </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="F31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="20">
+        <v>2</v>
+      </c>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" ht="21.75">
       <c r="A32" s="12" t="s">
         <v>52</v>
       </c>
@@ -1337,8 +1337,19 @@
       <c r="D32" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="F32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="20">
+        <v>2</v>
+      </c>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" ht="21.75">
       <c r="A33" s="12" t="s">
         <v>63</v>
       </c>
@@ -1348,8 +1359,19 @@
       <c r="D33" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="F33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="20">
+        <v>2</v>
+      </c>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="21.75">
       <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
@@ -1359,8 +1381,19 @@
       <c r="D34" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="F34" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="20">
+        <v>2</v>
+      </c>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="21.75">
       <c r="A35" s="12" t="s">
         <v>39</v>
       </c>
@@ -1372,8 +1405,21 @@
         <v>2</v>
       </c>
       <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="F35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="20">
+        <v>2</v>
+      </c>
+      <c r="J35" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21">
       <c r="A36" s="12" t="s">
         <v>70</v>
       </c>
@@ -1385,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="21">
       <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
@@ -1396,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="21">
       <c r="A38" s="12" t="s">
         <v>72</v>
       </c>
@@ -1407,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="21">
       <c r="A39" s="12" t="s">
         <v>73</v>
       </c>
@@ -1417,7 +1463,6 @@
       <c r="D39" s="9">
         <v>1</v>
       </c>
-      <c r="F39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1434,24 +1479,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/NIF/Lista_Confirmados.xlsx
+++ b/trunk/NIF/Lista_Confirmados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="8115"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -243,8 +243,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,12 +318,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -337,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +360,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,19 +370,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,6 +461,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -511,6 +496,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,14 +672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -702,47 +688,47 @@
     <col min="7" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -770,7 +756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21.75">
+    <row r="4" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -791,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21.75">
+    <row r="5" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -812,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21.75">
+    <row r="6" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
@@ -838,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21">
+    <row r="7" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -849,8 +835,17 @@
         <v>2</v>
       </c>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="21.75">
+      <c r="F7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
@@ -860,19 +855,17 @@
       <c r="D8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="20">
-        <v>4</v>
-      </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="21.75">
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>68</v>
       </c>
@@ -882,21 +875,17 @@
       <c r="D9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="20">
-        <v>2</v>
-      </c>
-      <c r="J9" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21.75">
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
@@ -906,19 +895,17 @@
       <c r="D10" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="20">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="21">
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
@@ -928,8 +915,17 @@
       <c r="D11" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="21.75">
+      <c r="F11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -939,18 +935,17 @@
       <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21.75">
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
@@ -960,18 +955,17 @@
       <c r="D13" s="9">
         <v>2</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21.75">
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -981,18 +975,20 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21.75">
+      <c r="F14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="8">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
@@ -1002,18 +998,17 @@
       <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21.75">
+      <c r="F15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -1023,18 +1018,17 @@
       <c r="D16" s="9">
         <v>2</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="21">
+      <c r="F16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>59</v>
       </c>
@@ -1044,8 +1038,17 @@
       <c r="D17" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="21.75">
+      <c r="F17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>34</v>
       </c>
@@ -1055,18 +1058,17 @@
       <c r="D18" s="9">
         <v>3</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21.75">
+      <c r="F18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -1076,18 +1078,17 @@
       <c r="D19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="21.75">
+      <c r="F19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
@@ -1097,18 +1098,20 @@
       <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="21.75">
+      <c r="F20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>37</v>
       </c>
@@ -1118,18 +1121,17 @@
       <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="21.75">
+      <c r="F21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
@@ -1139,18 +1141,17 @@
       <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="21.75">
+      <c r="F22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>54</v>
       </c>
@@ -1160,18 +1161,17 @@
       <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="21">
+      <c r="F23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>67</v>
       </c>
@@ -1181,8 +1181,17 @@
       <c r="D24" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="21.75">
+      <c r="F24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
@@ -1192,19 +1201,17 @@
       <c r="D25" s="9">
         <v>2</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="20">
-        <v>2</v>
-      </c>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="21.75">
+      <c r="F25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>46</v>
       </c>
@@ -1214,19 +1221,17 @@
       <c r="D26" s="9">
         <v>2</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="20">
-        <v>2</v>
-      </c>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="21.75">
+      <c r="F26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
@@ -1236,19 +1241,17 @@
       <c r="D27" s="9">
         <v>2</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="20">
-        <v>2</v>
-      </c>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" ht="21.75">
+      <c r="H27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
         <v>48</v>
       </c>
@@ -1258,21 +1261,20 @@
       <c r="D28" s="9">
         <v>2</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="20">
-        <v>2</v>
-      </c>
-      <c r="J28" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21.75">
+      <c r="H28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="8">
+        <v>2</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
         <v>49</v>
       </c>
@@ -1282,19 +1284,18 @@
       <c r="D29" s="9">
         <v>1</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="20">
-        <v>1</v>
-      </c>
-      <c r="J29" s="21"/>
-    </row>
-    <row r="30" spans="1:10" ht="21">
+      <c r="H29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
         <v>50</v>
       </c>
@@ -1304,8 +1305,17 @@
       <c r="D30" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="21.75">
+      <c r="F30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>51</v>
       </c>
@@ -1315,19 +1325,9 @@
       <c r="D31" s="9">
         <v>2</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="20">
-        <v>2</v>
-      </c>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" ht="21.75">
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>52</v>
       </c>
@@ -1337,19 +1337,8 @@
       <c r="D32" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="20">
-        <v>2</v>
-      </c>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" ht="21.75">
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>63</v>
       </c>
@@ -1359,19 +1348,8 @@
       <c r="D33" s="9">
         <v>2</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="20">
-        <v>2</v>
-      </c>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="21.75">
+    </row>
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
@@ -1381,19 +1359,8 @@
       <c r="D34" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="20">
-        <v>2</v>
-      </c>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" ht="21.75">
+    </row>
+    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>39</v>
       </c>
@@ -1405,21 +1372,8 @@
         <v>2</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="20">
-        <v>2</v>
-      </c>
-      <c r="J35" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="21">
+    </row>
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>70</v>
       </c>
@@ -1431,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="21">
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
@@ -1442,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="21">
+    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>72</v>
       </c>
@@ -1453,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="21">
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>73</v>
       </c>
@@ -1463,6 +1417,7 @@
       <c r="D39" s="9">
         <v>1</v>
       </c>
+      <c r="F39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1479,24 +1434,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
